--- a/指令译码规则.xlsx
+++ b/指令译码规则.xlsx
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16位编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>----------</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,18 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>!??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作设备号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +95,26 @@
   </si>
   <si>
     <t>num2（8位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0b100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -484,19 +484,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -504,84 +504,84 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
